--- a/Notes examen 1er.xlsx
+++ b/Notes examen 1er.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Keyframes</t>
   </si>
@@ -25,6 +25,27 @@
   </si>
   <si>
     <t>Check list examen</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>detecció errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retroalimentació </t>
+  </si>
+  <si>
+    <t>Animació</t>
+  </si>
+  <si>
+    <t>Accessibilitat: boto ampliar text</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -69,9 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,31 +397,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
